--- a/docs/comparing_census_survey.xlsx
+++ b/docs/comparing_census_survey.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tenure" sheetId="3" r:id="rId1"/>
-    <sheet name="bedrooms" sheetId="2" r:id="rId2"/>
-    <sheet name="rooms" sheetId="4" r:id="rId3"/>
-    <sheet name="occupants (hhsize)" sheetId="1" r:id="rId4"/>
+    <sheet name="rooms" sheetId="4" r:id="rId2"/>
+    <sheet name="occupants (hhsize)" sheetId="1" r:id="rId3"/>
+    <sheet name="bedrooms" sheetId="2" r:id="rId4"/>
     <sheet name="composition (hhtype)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -520,11 +520,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="466592048"/>
-        <c:axId val="466592440"/>
+        <c:axId val="411065184"/>
+        <c:axId val="411065576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="466592048"/>
+        <c:axId val="411065184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466592440"/>
+        <c:crossAx val="411065576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -575,7 +575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466592440"/>
+        <c:axId val="411065576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466592048"/>
+        <c:crossAx val="411065184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,7 +822,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1015,11 +1014,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="466602632"/>
-        <c:axId val="466603024"/>
+        <c:axId val="408223800"/>
+        <c:axId val="408224192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="466602632"/>
+        <c:axId val="408223800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466603024"/>
+        <c:crossAx val="408224192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1070,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466603024"/>
+        <c:axId val="408224192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1115,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1177,7 +1175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466602632"/>
+        <c:crossAx val="408223800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1191,7 +1189,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1303,7 +1300,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1392,7 +1388,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1475,11 +1470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466603808"/>
-        <c:axId val="466604200"/>
+        <c:axId val="408224976"/>
+        <c:axId val="408225368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466603808"/>
+        <c:axId val="408224976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1520,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1592,12 +1586,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466604200"/>
+        <c:crossAx val="408225368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466604200"/>
+        <c:axId val="408225368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1710,7 +1703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466603808"/>
+        <c:crossAx val="408224976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1994,11 +1987,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466593224"/>
-        <c:axId val="466593616"/>
+        <c:axId val="411066360"/>
+        <c:axId val="411066752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466593224"/>
+        <c:axId val="411066360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,12 +2104,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466593616"/>
+        <c:crossAx val="411066752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466593616"/>
+        <c:axId val="411066752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466593224"/>
+        <c:crossAx val="411066360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2315,7 +2308,7 @@
               <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Comparing Census &amp; Survey Data - number of bedrooms</a:t>
+              <a:t>Comparing Census &amp; Survey Data - total number of rooms</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB">
               <a:effectLst/>
@@ -2365,7 +2358,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>bedrooms!$B$1</c:f>
+              <c:f>rooms!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2386,53 +2379,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bedrooms!$A$3:$A$8</c:f>
+              <c:f>rooms!$A$3:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>No bedrooms</c:v>
+                  <c:v>1 room</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1 bedroom</c:v>
+                  <c:v>2 rooms</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2 bedrooms</c:v>
+                  <c:v>3 rooms</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3 bedrooms</c:v>
+                  <c:v>4 rooms</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4 bedrooms</c:v>
+                  <c:v>5 rooms</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5 or more bedrooms</c:v>
+                  <c:v>6 rooms</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 rooms</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 rooms</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9 or more rooms</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bedrooms!$E$3:$E$8</c:f>
+              <c:f>rooms!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.24489382969577564</c:v>
+                  <c:v>0.75549374125975288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.526285750382049</c:v>
+                  <c:v>2.8398345907420186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.649498562957426</c:v>
+                  <c:v>10.072244150528862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.621380153182969</c:v>
+                  <c:v>19.004646229374558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.389722967225433</c:v>
+                  <c:v>24.742789151642445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5682187365563465</c:v>
+                  <c:v>19.581012515426231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.176699145135565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4042377049362749</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4230427709542957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,7 +2454,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>bedrooms!$C$1</c:f>
+              <c:f>rooms!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2464,53 +2475,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bedrooms!$A$3:$A$8</c:f>
+              <c:f>rooms!$A$3:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>No bedrooms</c:v>
+                  <c:v>1 room</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1 bedroom</c:v>
+                  <c:v>2 rooms</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2 bedrooms</c:v>
+                  <c:v>3 rooms</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3 bedrooms</c:v>
+                  <c:v>4 rooms</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4 bedrooms</c:v>
+                  <c:v>5 rooms</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5 or more bedrooms</c:v>
+                  <c:v>6 rooms</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 rooms</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 rooms</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9 or more rooms</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bedrooms!$F$3:$F$8</c:f>
+              <c:f>rooms!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.38961038961038963</c:v>
+                  <c:v>0.36081544290095613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9725829725829724</c:v>
+                  <c:v>6.8194118708280707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.480519480519479</c:v>
+                  <c:v>17.351614649106981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.753968253968253</c:v>
+                  <c:v>24.798845390582716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.641414141414142</c:v>
+                  <c:v>24.001443261771605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7619047619047619</c:v>
+                  <c:v>12.888327620422155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6384629262132426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6298033555836189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5112754825906549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,11 +2555,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="466594400"/>
-        <c:axId val="466594792"/>
+        <c:axId val="411069888"/>
+        <c:axId val="411070280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="466594400"/>
+        <c:axId val="411069888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +2602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466594792"/>
+        <c:crossAx val="411070280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2581,7 +2610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466594792"/>
+        <c:axId val="411070280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,7 +2717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466594400"/>
+        <c:crossAx val="411069888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2770,1065 +2799,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Comparing Census &amp; Survey Data - number of bedrooms</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>bedrooms!$E$3:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.24489382969577564</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.526285750382049</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.649498562957426</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.621380153182969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.389722967225433</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5682187365563465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>bedrooms!$F$3:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.38961038961038963</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9725829725829724</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.480519480519479</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.753968253968253</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.641414141414142</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7619047619047619</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="466595576"/>
-        <c:axId val="466595968"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="466595576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>2011 census (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466595968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="466595968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>wave</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> c survey (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466595576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Comparing Census &amp; Survey Data - total number of rooms</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>rooms!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2011 census</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>rooms!$A$3:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1 room</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 rooms</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 rooms</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 rooms</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 rooms</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 rooms</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 rooms</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 rooms</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9 or more rooms</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rooms!$E$3:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.75549374125975288</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8398345907420186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.072244150528862</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.004646229374558</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.742789151642445</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.581012515426231</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.176699145135565</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.4042377049362749</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4230427709542957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>rooms!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wave c survey</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>rooms!$A$3:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1 room</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 rooms</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 rooms</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 rooms</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 rooms</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 rooms</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 rooms</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 rooms</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9 or more rooms</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rooms!$F$3:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.36081544290095613</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8194118708280707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.351614649106981</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.798845390582716</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.001443261771605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.888327620422155</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.6384629262132426</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6298033555836189</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5112754825906549</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="466596752"/>
-        <c:axId val="466597144"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="466596752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466597144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="466597144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Percentage</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466596752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4082,11 +3052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466597928"/>
-        <c:axId val="466598320"/>
+        <c:axId val="411071064"/>
+        <c:axId val="408219488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466597928"/>
+        <c:axId val="411071064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,12 +3169,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466598320"/>
+        <c:crossAx val="408219488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466598320"/>
+        <c:axId val="408219488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,7 +3287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466597928"/>
+        <c:crossAx val="411071064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4366,7 +3336,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4542,11 +3512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="466599104"/>
-        <c:axId val="466599496"/>
+        <c:axId val="408220272"/>
+        <c:axId val="408220664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="466599104"/>
+        <c:axId val="408220272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4603,7 +3573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466599496"/>
+        <c:crossAx val="408220664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4611,7 +3581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466599496"/>
+        <c:axId val="408220664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4724,7 +3694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466599104"/>
+        <c:crossAx val="408220272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4773,7 +3743,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5040,11 +4010,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="466600280"/>
-        <c:axId val="466600672"/>
+        <c:axId val="408221448"/>
+        <c:axId val="408221840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="466600280"/>
+        <c:axId val="408221448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,7 +4057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466600672"/>
+        <c:crossAx val="408221840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5095,7 +4065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466600672"/>
+        <c:axId val="408221840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5202,7 +4172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466600280"/>
+        <c:crossAx val="408221448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5283,7 +4253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5510,11 +4480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466601456"/>
-        <c:axId val="466601848"/>
+        <c:axId val="408222624"/>
+        <c:axId val="408223016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466601456"/>
+        <c:axId val="408222624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,12 +4605,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466601848"/>
+        <c:crossAx val="408223016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466601848"/>
+        <c:axId val="408223016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5760,7 +4730,1023 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466601456"/>
+        <c:crossAx val="408222624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparing Census &amp; Survey Data - number of bedrooms</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bedrooms!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011 census</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bedrooms!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No bedrooms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 bedroom</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 bedrooms</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 bedrooms</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 bedrooms</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 or more bedrooms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bedrooms!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.24489382969577564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.526285750382049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.649498562957426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.621380153182969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.389722967225433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5682187365563465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bedrooms!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wave c survey</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bedrooms!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No bedrooms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 bedroom</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 bedrooms</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 bedrooms</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 bedrooms</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 or more bedrooms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bedrooms!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.38961038961038963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9725829725829724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.480519480519479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.753968253968253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.641414141414142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="411067536"/>
+        <c:axId val="411067928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="411067536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411067928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="411067928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411067536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparing Census &amp; Survey Data - number of bedrooms</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bedrooms!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.24489382969577564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.526285750382049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.649498562957426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.621380153182969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.389722967225433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5682187365563465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bedrooms!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.38961038961038963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9725829725829724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.480519480519479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.753968253968253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.641414141414142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411068712"/>
+        <c:axId val="411069104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="411068712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>2011 census (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411069104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411069104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>wave</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> c survey (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411068712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9307,7 +9293,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9334,8 +9320,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9436,7 +9422,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9468,10 +9454,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9511,22 +9497,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9631,8 +9618,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9764,19 +9751,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9790,6 +9778,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9810,7 +9809,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9837,8 +9836,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9939,7 +9938,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9971,10 +9970,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10014,23 +10013,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10135,8 +10133,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10268,20 +10266,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10295,17 +10292,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11926,71 +11912,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>42861</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12085,7 +12006,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12129,6 +12050,71 @@
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12480,7 +12466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -12675,6 +12661,817 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <f>SUM(B3:B11)</f>
+        <v>23366044</v>
+      </c>
+      <c r="C2">
+        <f>SUM(C3:C11)</f>
+        <v>27715</v>
+      </c>
+      <c r="E2">
+        <f>SUM(E3:E11)</f>
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <f>SUM(F3:F11)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>176529</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f>B3/B2*100</f>
+        <v>0.75549374125975288</v>
+      </c>
+      <c r="F3">
+        <f>C3/C2*100</f>
+        <v>0.36081544290095613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>663557</v>
+      </c>
+      <c r="C4">
+        <v>1890</v>
+      </c>
+      <c r="E4">
+        <f>B4/B2*100</f>
+        <v>2.8398345907420186</v>
+      </c>
+      <c r="F4">
+        <f>C4/C2*100</f>
+        <v>6.8194118708280707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2353485</v>
+      </c>
+      <c r="C5">
+        <v>4809</v>
+      </c>
+      <c r="E5">
+        <f>B5/B2*100</f>
+        <v>10.072244150528862</v>
+      </c>
+      <c r="F5">
+        <f>C5/C2*100</f>
+        <v>17.351614649106981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>4440634</v>
+      </c>
+      <c r="C6">
+        <v>6873</v>
+      </c>
+      <c r="E6">
+        <f>B6/B2*100</f>
+        <v>19.004646229374558</v>
+      </c>
+      <c r="F6">
+        <f>C6/C2*100</f>
+        <v>24.798845390582716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>5781411</v>
+      </c>
+      <c r="C7">
+        <v>6652</v>
+      </c>
+      <c r="E7">
+        <f>B7/B2*100</f>
+        <v>24.742789151642445</v>
+      </c>
+      <c r="F7">
+        <f>C7/C2*100</f>
+        <v>24.001443261771605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>4575308</v>
+      </c>
+      <c r="C8">
+        <v>3572</v>
+      </c>
+      <c r="E8">
+        <f>B8/B2*100</f>
+        <v>19.581012515426231</v>
+      </c>
+      <c r="F8">
+        <f>C8/C2*100</f>
+        <v>12.888327620422155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>2377892</v>
+      </c>
+      <c r="C9">
+        <v>2117</v>
+      </c>
+      <c r="E9">
+        <f>B9/B2*100</f>
+        <v>10.176699145135565</v>
+      </c>
+      <c r="F9">
+        <f>C9/C2*100</f>
+        <v>7.6384629262132426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>1496417</v>
+      </c>
+      <c r="C10">
+        <v>1006</v>
+      </c>
+      <c r="E10">
+        <f>B10/B2*100</f>
+        <v>6.4042377049362749</v>
+      </c>
+      <c r="F10">
+        <f>C10/C2*100</f>
+        <v>3.6298033555836189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>1500811</v>
+      </c>
+      <c r="C11">
+        <v>696</v>
+      </c>
+      <c r="E11">
+        <f>B11/B2*100</f>
+        <v>6.4230427709542957</v>
+      </c>
+      <c r="F11">
+        <f>C11/C2*100</f>
+        <v>2.5112754825906549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="P29">
+        <v>0.48570000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="K30">
+        <v>0.75549374125975288</v>
+      </c>
+      <c r="L30">
+        <v>0.36081544290095613</v>
+      </c>
+      <c r="M30">
+        <f>K30*O29+P29</f>
+        <v>1.2081786647667019</v>
+      </c>
+      <c r="N30">
+        <f>M30-L30</f>
+        <v>0.84736322186574575</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="K31">
+        <v>2.8398345907420186</v>
+      </c>
+      <c r="L31">
+        <v>6.8194118708280707</v>
+      </c>
+      <c r="M31">
+        <f>K31*O29+P29</f>
+        <v>3.2014338191265925</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N38" si="0">M31-L31</f>
+        <v>-3.6179780517014781</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="K32">
+        <v>10.072244150528862</v>
+      </c>
+      <c r="L32">
+        <v>17.351614649106981</v>
+      </c>
+      <c r="M32">
+        <f>K32*O29+P29</f>
+        <v>10.11778708115075</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>-7.2338275679562312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="K33">
+        <v>19.004646229374558</v>
+      </c>
+      <c r="L33">
+        <v>24.798845390582716</v>
+      </c>
+      <c r="M33">
+        <f>K33*O29+P29</f>
+        <v>18.659843189150891</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>-6.1390022014318255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="K34">
+        <v>24.742789151642445</v>
+      </c>
+      <c r="L34">
+        <v>24.001443261771605</v>
+      </c>
+      <c r="M34">
+        <f>K34*O29+P29</f>
+        <v>24.147229265715673</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0.14578600394406749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="K35">
+        <v>19.581012515426231</v>
+      </c>
+      <c r="L35">
+        <v>12.888327620422155</v>
+      </c>
+      <c r="M35">
+        <f>K35*O29+P29</f>
+        <v>19.211022268502106</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>6.3226946480799509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="K36">
+        <v>10.176699145135565</v>
+      </c>
+      <c r="L36">
+        <v>7.6384629262132426</v>
+      </c>
+      <c r="M36">
+        <f>K36*O29+P29</f>
+        <v>10.21767739249314</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>2.5792144662798977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="K37">
+        <v>6.4042377049362749</v>
+      </c>
+      <c r="L37">
+        <v>3.6298033555836189</v>
+      </c>
+      <c r="M37">
+        <f>K37*O29+P29</f>
+        <v>6.6100725172305594</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>2.9802691616469406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H38" s="1"/>
+      <c r="K38">
+        <v>6.4230427709542957</v>
+      </c>
+      <c r="L38">
+        <v>2.5112754825906549</v>
+      </c>
+      <c r="M38">
+        <f>K38*O29+P29</f>
+        <v>6.628055801863594</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>4.1167803192729391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H40" s="1"/>
+      <c r="M40">
+        <f>K30-L30</f>
+        <v>0.39467829835879675</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H41" s="1"/>
+      <c r="M41">
+        <f t="shared" ref="M41:M48" si="1">K31-L31</f>
+        <v>-3.979577280086052</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>-7.2793704985781194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H43" s="1"/>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>-5.7941991612081587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H44" s="1"/>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>0.74134588987083916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H45" s="1"/>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>6.692684895004076</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>2.5382362189223224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>2.774434349352656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>3.9117672883636407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>23366044</v>
+      </c>
+      <c r="C2">
+        <v>27782</v>
+      </c>
+      <c r="E2">
+        <f>SUM(E3:E10)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="F2">
+        <f>SUM(F3:F10)</f>
+        <v>100.00000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7067261</v>
+      </c>
+      <c r="C3">
+        <v>6992</v>
+      </c>
+      <c r="E3">
+        <f>B3/B2*100</f>
+        <v>30.245860189255829</v>
+      </c>
+      <c r="F3">
+        <f>C3/C2*100</f>
+        <v>25.167374559067024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7998031</v>
+      </c>
+      <c r="C4">
+        <v>9361</v>
+      </c>
+      <c r="E4">
+        <f>B4/B2*100</f>
+        <v>34.22929016139831</v>
+      </c>
+      <c r="F4">
+        <f>C4/C2*100</f>
+        <v>33.694478439277233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3641569</v>
+      </c>
+      <c r="C5">
+        <v>4648</v>
+      </c>
+      <c r="E5">
+        <f>B5/B2*100</f>
+        <v>15.58487607059201</v>
+      </c>
+      <c r="F5">
+        <f>C5/C2*100</f>
+        <v>16.730257000935858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3031078</v>
+      </c>
+      <c r="C6">
+        <v>4214</v>
+      </c>
+      <c r="E6">
+        <f>B6/B2*100</f>
+        <v>12.972148815606099</v>
+      </c>
+      <c r="F6">
+        <f>C6/C2*100</f>
+        <v>15.168094449643654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1085188</v>
+      </c>
+      <c r="C7">
+        <v>1703</v>
+      </c>
+      <c r="E7">
+        <f>B7/B2*100</f>
+        <v>4.6442949435514196</v>
+      </c>
+      <c r="F7">
+        <f>C7/C2*100</f>
+        <v>6.1298682600244767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>386784</v>
+      </c>
+      <c r="C8">
+        <v>563</v>
+      </c>
+      <c r="E8">
+        <f>B8/B2*100</f>
+        <v>1.6553251376227829</v>
+      </c>
+      <c r="F8">
+        <f>C8/C2*100</f>
+        <v>2.0264919732200704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>92734</v>
+      </c>
+      <c r="C9">
+        <v>176</v>
+      </c>
+      <c r="E9">
+        <f>B9/B2*100</f>
+        <v>0.3968750551013257</v>
+      </c>
+      <c r="F9">
+        <f>C9/C2*100</f>
+        <v>0.63350370743646967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>63399</v>
+      </c>
+      <c r="C10">
+        <v>125</v>
+      </c>
+      <c r="E10">
+        <f>B10/B2*100</f>
+        <v>0.27132962687222539</v>
+      </c>
+      <c r="F10">
+        <f>C10/C2*100</f>
+        <v>0.44993161039521989</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -12909,817 +13706,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <f>SUM(B3:B11)</f>
-        <v>23366044</v>
-      </c>
-      <c r="C2">
-        <f>SUM(C3:C11)</f>
-        <v>27715</v>
-      </c>
-      <c r="E2">
-        <f>SUM(E3:E11)</f>
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <f>SUM(F3:F11)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>176529</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <f>B3/B2*100</f>
-        <v>0.75549374125975288</v>
-      </c>
-      <c r="F3">
-        <f>C3/C2*100</f>
-        <v>0.36081544290095613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>663557</v>
-      </c>
-      <c r="C4">
-        <v>1890</v>
-      </c>
-      <c r="E4">
-        <f>B4/B2*100</f>
-        <v>2.8398345907420186</v>
-      </c>
-      <c r="F4">
-        <f>C4/C2*100</f>
-        <v>6.8194118708280707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>2353485</v>
-      </c>
-      <c r="C5">
-        <v>4809</v>
-      </c>
-      <c r="E5">
-        <f>B5/B2*100</f>
-        <v>10.072244150528862</v>
-      </c>
-      <c r="F5">
-        <f>C5/C2*100</f>
-        <v>17.351614649106981</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>4440634</v>
-      </c>
-      <c r="C6">
-        <v>6873</v>
-      </c>
-      <c r="E6">
-        <f>B6/B2*100</f>
-        <v>19.004646229374558</v>
-      </c>
-      <c r="F6">
-        <f>C6/C2*100</f>
-        <v>24.798845390582716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>5781411</v>
-      </c>
-      <c r="C7">
-        <v>6652</v>
-      </c>
-      <c r="E7">
-        <f>B7/B2*100</f>
-        <v>24.742789151642445</v>
-      </c>
-      <c r="F7">
-        <f>C7/C2*100</f>
-        <v>24.001443261771605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>4575308</v>
-      </c>
-      <c r="C8">
-        <v>3572</v>
-      </c>
-      <c r="E8">
-        <f>B8/B2*100</f>
-        <v>19.581012515426231</v>
-      </c>
-      <c r="F8">
-        <f>C8/C2*100</f>
-        <v>12.888327620422155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>2377892</v>
-      </c>
-      <c r="C9">
-        <v>2117</v>
-      </c>
-      <c r="E9">
-        <f>B9/B2*100</f>
-        <v>10.176699145135565</v>
-      </c>
-      <c r="F9">
-        <f>C9/C2*100</f>
-        <v>7.6384629262132426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>1496417</v>
-      </c>
-      <c r="C10">
-        <v>1006</v>
-      </c>
-      <c r="E10">
-        <f>B10/B2*100</f>
-        <v>6.4042377049362749</v>
-      </c>
-      <c r="F10">
-        <f>C10/C2*100</f>
-        <v>3.6298033555836189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>1500811</v>
-      </c>
-      <c r="C11">
-        <v>696</v>
-      </c>
-      <c r="E11">
-        <f>B11/B2*100</f>
-        <v>6.4230427709542957</v>
-      </c>
-      <c r="F11">
-        <f>C11/C2*100</f>
-        <v>2.5112754825906549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="K28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>100</v>
-      </c>
-      <c r="M29" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29">
-        <v>0.95630000000000004</v>
-      </c>
-      <c r="P29">
-        <v>0.48570000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="K30">
-        <v>0.75549374125975288</v>
-      </c>
-      <c r="L30">
-        <v>0.36081544290095613</v>
-      </c>
-      <c r="M30">
-        <f>K30*O29+P29</f>
-        <v>1.2081786647667019</v>
-      </c>
-      <c r="N30">
-        <f>M30-L30</f>
-        <v>0.84736322186574575</v>
-      </c>
-    </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="K31">
-        <v>2.8398345907420186</v>
-      </c>
-      <c r="L31">
-        <v>6.8194118708280707</v>
-      </c>
-      <c r="M31">
-        <f>K31*O29+P29</f>
-        <v>3.2014338191265925</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ref="N31:N38" si="0">M31-L31</f>
-        <v>-3.6179780517014781</v>
-      </c>
-    </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="K32">
-        <v>10.072244150528862</v>
-      </c>
-      <c r="L32">
-        <v>17.351614649106981</v>
-      </c>
-      <c r="M32">
-        <f>K32*O29+P29</f>
-        <v>10.11778708115075</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>-7.2338275679562312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="K33">
-        <v>19.004646229374558</v>
-      </c>
-      <c r="L33">
-        <v>24.798845390582716</v>
-      </c>
-      <c r="M33">
-        <f>K33*O29+P29</f>
-        <v>18.659843189150891</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>-6.1390022014318255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="K34">
-        <v>24.742789151642445</v>
-      </c>
-      <c r="L34">
-        <v>24.001443261771605</v>
-      </c>
-      <c r="M34">
-        <f>K34*O29+P29</f>
-        <v>24.147229265715673</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="0"/>
-        <v>0.14578600394406749</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="K35">
-        <v>19.581012515426231</v>
-      </c>
-      <c r="L35">
-        <v>12.888327620422155</v>
-      </c>
-      <c r="M35">
-        <f>K35*O29+P29</f>
-        <v>19.211022268502106</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="0"/>
-        <v>6.3226946480799509</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="K36">
-        <v>10.176699145135565</v>
-      </c>
-      <c r="L36">
-        <v>7.6384629262132426</v>
-      </c>
-      <c r="M36">
-        <f>K36*O29+P29</f>
-        <v>10.21767739249314</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="0"/>
-        <v>2.5792144662798977</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="K37">
-        <v>6.4042377049362749</v>
-      </c>
-      <c r="L37">
-        <v>3.6298033555836189</v>
-      </c>
-      <c r="M37">
-        <f>K37*O29+P29</f>
-        <v>6.6100725172305594</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="0"/>
-        <v>2.9802691616469406</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H38" s="1"/>
-      <c r="K38">
-        <v>6.4230427709542957</v>
-      </c>
-      <c r="L38">
-        <v>2.5112754825906549</v>
-      </c>
-      <c r="M38">
-        <f>K38*O29+P29</f>
-        <v>6.628055801863594</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="0"/>
-        <v>4.1167803192729391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="1"/>
-      <c r="M40">
-        <f>K30-L30</f>
-        <v>0.39467829835879675</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="1"/>
-      <c r="M41">
-        <f t="shared" ref="M41:M48" si="1">K31-L31</f>
-        <v>-3.979577280086052</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="M42">
-        <f t="shared" si="1"/>
-        <v>-7.2793704985781194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H43" s="1"/>
-      <c r="M43">
-        <f t="shared" si="1"/>
-        <v>-5.7941991612081587</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H44" s="1"/>
-      <c r="M44">
-        <f t="shared" si="1"/>
-        <v>0.74134588987083916</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H45" s="1"/>
-      <c r="M45">
-        <f t="shared" si="1"/>
-        <v>6.692684895004076</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M46">
-        <f t="shared" si="1"/>
-        <v>2.5382362189223224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M47">
-        <f t="shared" si="1"/>
-        <v>2.774434349352656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M48">
-        <f t="shared" si="1"/>
-        <v>3.9117672883636407</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>23366044</v>
-      </c>
-      <c r="C2">
-        <v>27782</v>
-      </c>
-      <c r="E2">
-        <f>SUM(E3:E10)</f>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="F2">
-        <f>SUM(F3:F10)</f>
-        <v>100.00000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>7067261</v>
-      </c>
-      <c r="C3">
-        <v>6992</v>
-      </c>
-      <c r="E3">
-        <f>B3/B2*100</f>
-        <v>30.245860189255829</v>
-      </c>
-      <c r="F3">
-        <f>C3/C2*100</f>
-        <v>25.167374559067024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>7998031</v>
-      </c>
-      <c r="C4">
-        <v>9361</v>
-      </c>
-      <c r="E4">
-        <f>B4/B2*100</f>
-        <v>34.22929016139831</v>
-      </c>
-      <c r="F4">
-        <f>C4/C2*100</f>
-        <v>33.694478439277233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3641569</v>
-      </c>
-      <c r="C5">
-        <v>4648</v>
-      </c>
-      <c r="E5">
-        <f>B5/B2*100</f>
-        <v>15.58487607059201</v>
-      </c>
-      <c r="F5">
-        <f>C5/C2*100</f>
-        <v>16.730257000935858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3031078</v>
-      </c>
-      <c r="C6">
-        <v>4214</v>
-      </c>
-      <c r="E6">
-        <f>B6/B2*100</f>
-        <v>12.972148815606099</v>
-      </c>
-      <c r="F6">
-        <f>C6/C2*100</f>
-        <v>15.168094449643654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1085188</v>
-      </c>
-      <c r="C7">
-        <v>1703</v>
-      </c>
-      <c r="E7">
-        <f>B7/B2*100</f>
-        <v>4.6442949435514196</v>
-      </c>
-      <c r="F7">
-        <f>C7/C2*100</f>
-        <v>6.1298682600244767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>386784</v>
-      </c>
-      <c r="C8">
-        <v>563</v>
-      </c>
-      <c r="E8">
-        <f>B8/B2*100</f>
-        <v>1.6553251376227829</v>
-      </c>
-      <c r="F8">
-        <f>C8/C2*100</f>
-        <v>2.0264919732200704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>92734</v>
-      </c>
-      <c r="C9">
-        <v>176</v>
-      </c>
-      <c r="E9">
-        <f>B9/B2*100</f>
-        <v>0.3968750551013257</v>
-      </c>
-      <c r="F9">
-        <f>C9/C2*100</f>
-        <v>0.63350370743646967</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>63399</v>
-      </c>
-      <c r="C10">
-        <v>125</v>
-      </c>
-      <c r="E10">
-        <f>B10/B2*100</f>
-        <v>0.27132962687222539</v>
-      </c>
-      <c r="F10">
-        <f>C10/C2*100</f>
-        <v>0.44993161039521989</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
